--- a/Data/01-01-23_08-07-25/sh-nfs_bling.xlsx
+++ b/Data/01-01-23_08-07-25/sh-nfs_bling.xlsx
@@ -524,7 +524,7 @@
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ h:mm"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1678,13 +1678,13 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="20.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.2857142857143" style="1" customWidth="1"/>
     <col min="3" max="4" width="7.71428571428571" customWidth="1"/>
     <col min="5" max="5" width="18.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
@@ -1693,10 +1693,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
